--- a/williamqiao/evidence.xlsx
+++ b/williamqiao/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Work/crypto/gon-evidence/williamqiao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Work/crypto/gon/gon-evidence/williamqiao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB7C708-64D6-F545-94FE-2ADA7E0AD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A2C50-8B14-E146-AB5C-ADAED2FCD31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3100" windowWidth="25680" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2920" windowWidth="25680" windowHeight="14920" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>TeamName</t>
   </si>
@@ -132,27 +132,85 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>omniflix1t7ep36j4za4nd30ctlvc9qvf6nt5gaglvqcfrj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>iaa1t7ep36j4za4nd30ctlvc9qvf6nt5gaglyufpka</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>stars1t7ep36j4za4nd30ctlvc9qvf6nt5gagl9z7dla</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>juno1t7ep36j4za4nd30ctlvc9qvf6nt5gagl8v2tns</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uptick1t7ep36j4za4nd30ctlvc9qvf6nt5gaglzc4tda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TWT#6605</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iaa103pz3cah5cqluek895wh92z9u4v9mf9qy6cjnf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars103pz3cah5cqluek895wh92z9u4v9mf9q9y076f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>juno103pz3cah5cqluek895wh92z9u4v9mf9q82mcky</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick1u9mvlqedr8sfk7u2ndzutlvh3vpdf8fz4tz02y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>omniflix103pz3cah5cqluek895wh92z9u4v9mf9qvxf6xx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32FCF0E990567BD5CDFF401C82C97A42FEBA782FE168D69464E4111165AAB0EA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C169C8C5F90CBC483BD37B6D23EFAFB84EAE1835F8D5D8393B5E14D71BA3B08A</t>
+  </si>
+  <si>
+    <t>twt0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0D8B0E30FE0FB1BCA827666F1E5367BF89B5E24E30878834D9F68F4CDA2C292</t>
+  </si>
+  <si>
+    <t>twt1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C0629302DEAABF9EA4F22CD7312BD5F9417CF2EE9F059FF92602FC1AE71CBA7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars1tqrpzspyekpun2ea8wedhvm5whzshvgzjpuz3nskjlvm89z0redqwjhgq9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4939EC38E6DAABDBBB13D2250BFCD890072ADE52A006F81E8EC4F5C12D4B7BF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/9B6AEEB04A78AAD2EC372136EF89526996C75FAF8F5C271AEF252AD9DE74EB27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22EBB03786C6B2EBD50A24EBA014358AAD80BF674B02CF836DD78774DA64263E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dest chain id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>98EBF9E5C47FEE16F640014BAEFA124D5FE14585C0701D724C3086B06CBBE2A4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,6 +242,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,12 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -627,10 +692,10 @@
         <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>23</v>
@@ -1045,9 +1110,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1068,6 +1135,14 @@
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1309,9 +1384,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1341,6 +1418,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="14">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1350,9 +1449,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1385,7 +1486,21 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1512,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="79.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1435,6 +1553,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1444,13 +1576,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="78.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1482,6 +1617,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1491,14 +1640,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="79.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
@@ -1529,6 +1680,20 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/williamqiao/evidence.xlsx
+++ b/williamqiao/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Work/crypto/gon/gon-evidence/williamqiao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A2C50-8B14-E146-AB5C-ADAED2FCD31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236A21C-2E6F-4040-9ABD-C015559B1E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2920" windowWidth="25680" windowHeight="14920" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30920" yWindow="6640" windowWidth="25680" windowHeight="14920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,24 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="128">
   <si>
     <t>TeamName</t>
   </si>
@@ -97,15 +109,6 @@
     <t>ibc class on chain</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -211,6 +214,300 @@
   </si>
   <si>
     <t>98EBF9E5C47FEE16F640014BAEFA124D5FE14585C0701D724C3086B06CBBE2A4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7E9A49CFDD4249AA39495759F8AE0D782CD373BFE32466203F132B3EE1CBA9DE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3BCF4B1041C0C3269C958197CF23392560A331B9B15C3CC56219E4D73DD8482</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>369E3C37044E1022865BD09AE820C2EC678319BC67DFDA26761B74B9AC735252</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA39280669D5C45E40C1339CAAE6E023CE6B3E5AA888812C1B298770EA3BF802</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9132542B95E674FDDD0B4901ABD0F9FD7E080236B543D6AEA007C8BFF27E5FC6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>345A3BFAA54983DA0218C0C0EF544983A7879D7D0F528DFEAC353EF7BF76A523</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2522C1759A7840A3F098F3C33DEE2DEB6BE521D6688ADB24714F5D9BDF3F64C2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A20CD66FF279F6702D1995C53BC3CC50F8038D36958A139470500575086D1264</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>798D359D7EE2B319502808BF3FD018DF8D7564E377D9DEFCA41B24A5A2F30D57</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt5</t>
+  </si>
+  <si>
+    <t>twt6</t>
+  </si>
+  <si>
+    <t>twt7</t>
+  </si>
+  <si>
+    <t>twt8</t>
+  </si>
+  <si>
+    <t>twt9</t>
+  </si>
+  <si>
+    <t>twt10</t>
+  </si>
+  <si>
+    <t>twt11</t>
+  </si>
+  <si>
+    <t>twt12</t>
+  </si>
+  <si>
+    <t>521D2B01A175D372B3EA21C044CE2A6D0E625B0E0DBF6640A069E823BE46F08C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt13</t>
+  </si>
+  <si>
+    <t>ibc/B4CAE647855CF8ACB1941F1CF750E4C67604008A073272A95E48B2E6FA720C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibc/0A600C255C5BB140E3CB1E877396CB99F509F95A817AFE6E1265CA006F4432EB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1AB7356AA4E3FD3A16216F7D2D8320CF5348856C9768FF3BA88C5DA12D939FF0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt14</t>
+  </si>
+  <si>
+    <t>621FB7F9EA08A2078336E357B147792FED86B70E73DE2DD1347A3D4411684BE6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/3730A4842A54ECC9550FB5B9032E1C8E706676DDD1910B8DD16CDA16615F4471</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/9B166E5B099C669C1294F327A3BDE4069C6A8422553918AD30DC5132C4C6823D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/1543C1E1BB66932372EC8C46FCC2BF1152D1AC555C194AE1E1CA415544FD18DD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/ABAB27424B818A59B48658D5B59BDDAB3170A80207199B6C68F907FEC8AAECC0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>4B0E86AA21195F78C0C81196ACECE35D612792876713479D6556165DC4356A87</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>44D3C1706BD0EC7C542EFD75A9D78060D6589291D14E6F98D3B70565A303A265</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3219CBA9F323E9956B9ED64084F72B38CC6BF632C60B42E05AC11BC6FF1E0CE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4E446E029ED0FDCF2936FFB05CC5B40B8582BE5323D939B500882B7A0FAA308</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA2E3E041F3FDAB706B45DE227C6DA11336400FC958A10AA24B03862BCCA6A5F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>874FCDCAD2FDC288E3E046F4E54FBC22F200FDC760BF3D6DC2DE60B3D96F031D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD60CA7198A7F5621D82B6C79AB48B6B81B54302A6301628EDC4AD30D5BC7595</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4ED93273DE09EDAE4B762E9565910B74DE1BBD44CC5E4B623584983E402F3F9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE9D897FC3DE0DD8E04A2C52AF6109DF4537901B554F1B914E2A8D68E358946E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD259AE8DD65DEC7B8B074C4B12ECD7D35AA0E7E912C6DB0916F8AA04493BB8F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1CC8002F7190E33A6EFB5E5B949552723C47D449C5DD43D71E48AA9887719903</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C919A9257A3214D47EFD9D115B7F9035B051F5BEC9C80D426C0A7B3A1DFDDD9A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8515A38AC14CF2CC846BF70F542DC7A7F6F1E8C7B4E8A205A8AE935AB2CDAD6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7799F88F5570924A54D4AB156E000756FA5D331C88176DB7A2DB43633DEA3BE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEB615F7407C5256C79F1AD7D3C65427ACCAC019C4F1DD035A724DF481FF7C8F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23F70741A5A788A919FF7625B2300908125892BDDC406CE680F3A3080BFD9350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5AB86189806AC7CFE1310BD02B9354673E6978F19706276C014E2D4154DE9150</t>
+  </si>
+  <si>
+    <t>93F841BD649C905E3F0337E1277F73D4BBC1EA0D2D8A913B18505448705BFCED</t>
+  </si>
+  <si>
+    <t>4174538904E54C6E3DF8F933FD8A1588C62C62C22821BAD763C204F7E3D5F692</t>
+  </si>
+  <si>
+    <t>twt20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>twt21</t>
+  </si>
+  <si>
+    <t>twt22</t>
+  </si>
+  <si>
+    <t>0D8B2DB11175AAD6D31DD3E58DCB4B7750CD60DFE8B14D60F7CFB4C3B808A62C</t>
+  </si>
+  <si>
+    <t>985B0CAD7A3EEE320B1B334601B099A2801CF076BD0FCACAB4B0DBB843CD571F</t>
+  </si>
+  <si>
+    <t>D92EF9B6B91A1B08B8B9550160FF69F8BF43D8DCEFD1AAB4A41F4D467F89C84D</t>
+  </si>
+  <si>
+    <t>9A19B4C2B96BB68DBC1283F619827E8237A2A58B1124659D499CDBF84C6FABBB</t>
+  </si>
+  <si>
+    <t>0C4B99C34D2690DAB3392CF9260AA46D68D668491788CA2E637AF6A1C712EEDD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A596DC3D9DDE20D227F5E4A737075915438E32F4A77B996091F9AC31FDDFD0AF</t>
+  </si>
+  <si>
+    <t>9FD26714EF3B834AAE0B56EF3570CEF44BB13787E7831E4338CD551D38ABDA15</t>
+  </si>
+  <si>
+    <t>22A51B74294049D679950270B2895B7EA08A2A21D4AEB89F361F839ECD2964F3</t>
+  </si>
+  <si>
+    <t>6ABA7BF76888BD9A979C8316D21CE3676F73EC735555E55470C2423E2058A564</t>
+  </si>
+  <si>
+    <t>AC1EB28FF0181F0A35C9EDC914C5421F9FAB9B27970AAC139A3B21FFE4D45436</t>
+  </si>
+  <si>
+    <t>509FAB77401C4397D7EAFD7A69C64A3348F4A657AF1021A35802664E587015C6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>51C8C42BAC6DC3DE733A8EB55DDA33EBB3BEC3DF76C5E2EF47ED16F94FFDE6F9</t>
+  </si>
+  <si>
+    <t>106FF385BBAD7ED13B7B0E738C28AAEA74758269E929CB46883EBB2484D19CE7</t>
+  </si>
+  <si>
+    <t>52D339D7A0AD27EEB9E0FC35EE5D30127D1EF9EB9D1BC84A7A8D727D3245C596</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F43EC201B3EC90C0BD2CE1D479612B10667FEC6B0C526D3931C7DD013DFD6861</t>
+  </si>
+  <si>
+    <t>CD394D60B2C8136F48FCF66A5D0E81C6B1840F3A866ED172E443D021D94D7F5A</t>
+  </si>
+  <si>
+    <t>F890C0CBAAD3D9B983AA445FB79824F14FA27EA39ADF0104F8132D36C7DE2433</t>
+  </si>
+  <si>
+    <t>027E9CF16545B6112E49B8BD6D2650145FD25AD65DD3B6425C4A0169B702DDE7</t>
+  </si>
+  <si>
+    <t>A54A6B49320573CAF5FBDEDD19651853F5027F5B73242F56CDC13A099BC6618D</t>
+  </si>
+  <si>
+    <t>969219876120FF70DB59B3526C29EC9162431DC00449FB02F8CD47FEB7CC76A1</t>
+  </si>
+  <si>
+    <t>TxHash</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -282,13 +579,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,14 +936,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.83203125" bestFit="1" customWidth="1"/>
@@ -654,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -663,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -677,28 +978,28 @@
     </row>
     <row r="2" spans="1:8" ht="14">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +1011,139 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -729,10 +1162,18 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -742,31 +1183,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="76.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -776,79 +1241,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -865,20 +1264,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -888,11 +1301,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -909,20 +1324,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>92</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -932,11 +1361,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -953,20 +1384,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -976,11 +1421,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -997,20 +1444,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1020,11 +1481,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1041,20 +1504,34 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1064,56 +1541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1139,10 +1572,10 @@
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1154,9 +1587,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1173,21 +1608,54 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14">
+      <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1198,9 +1666,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1217,20 +1687,50 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1255,12 +1755,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1291,12 +1791,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1327,12 +1827,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1363,12 +1863,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1384,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1420,24 +1920,189 @@
     </row>
     <row r="3" spans="1:3" ht="14">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1486,21 +2151,21 @@
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1555,16 +2220,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1619,16 +2284,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1684,16 +2349,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1705,13 +2370,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="78.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14">
@@ -1730,6 +2397,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1739,13 +2414,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14">
@@ -1762,6 +2439,14 @@
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/williamqiao/evidence.xlsx
+++ b/williamqiao/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Work/crypto/gon/gon-evidence/williamqiao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7236A21C-2E6F-4040-9ABD-C015559B1E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2344A0BB-6A74-C145-9F59-CC9C4A72D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30920" yWindow="6640" windowWidth="25680" windowHeight="14920" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16840" yWindow="9860" windowWidth="25680" windowHeight="14920" tabRatio="500" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t>TeamName</t>
   </si>
@@ -79,36 +79,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -209,10 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>dest chain id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>98EBF9E5C47FEE16F640014BAEFA124D5FE14585C0701D724C3086B06CBBE2A4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -323,10 +295,6 @@
   </si>
   <si>
     <t>ibc/1543C1E1BB66932372EC8C46FCC2BF1152D1AC555C194AE1E1CA415544FD18DD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -579,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,7 +557,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -955,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -964,10 +931,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -978,28 +945,28 @@
     </row>
     <row r="2" spans="1:8" ht="14">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +978,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1027,23 +994,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1071,23 +1030,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1099,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1115,23 +1066,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1143,9 +1086,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
   <cols>
@@ -1157,23 +1102,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1196,42 +1133,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1259,39 +1196,39 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1319,39 +1256,39 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1379,39 +1316,39 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1439,39 +1376,39 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1499,39 +1436,39 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1543,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1564,18 +1501,10 @@
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -1603,59 +1532,56 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="7"/>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1682,55 +1608,55 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
@@ -1755,12 +1683,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1791,12 +1719,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1827,12 +1755,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1863,12 +1791,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1904,128 +1832,128 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14">
       <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14">
       <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14">
       <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14">
       <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14">
       <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14">
@@ -2033,76 +1961,65 @@
         <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14">
-      <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2114,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -2134,38 +2051,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2177,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -2198,38 +2101,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -2262,38 +2151,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -2327,38 +2202,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2370,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -2386,23 +2247,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -2430,23 +2283,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/williamqiao/evidence.xlsx
+++ b/williamqiao/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Work/crypto/gon/gon-evidence/williamqiao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2344A0BB-6A74-C145-9F59-CC9C4A72D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96908EC5-C385-8D4D-8541-3B80680A2214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9860" windowWidth="25680" windowHeight="14920" tabRatio="500" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16840" yWindow="9860" windowWidth="25680" windowHeight="14920" tabRatio="500" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="123">
   <si>
     <t>TeamName</t>
   </si>
@@ -476,6 +476,22 @@
   </si>
   <si>
     <t>TxHash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>884C9E67BCD97226478501E25C3A51D41034703E2499E59F78F7128BF1DB39DE</t>
+  </si>
+  <si>
+    <t>5114BEE18EB4D9B147A05C74DC368BA6063F7FEDC87FA0D19155C1870FF9D155</t>
+  </si>
+  <si>
+    <t>0F629E8F140B680FEFCF4A3A055150EC13EEBD9CACD91B3084F5FFAC01B3AE97</t>
+  </si>
+  <si>
+    <t>893C21D3AB47EE67C230467A7FA6CA0DB880B36C88EDF506ABF9AF43C396ED6B</t>
+  </si>
+  <si>
+    <t>directly tranfer from omoniflix to iaa1488wwr235vka7j722hzacpk0plxw33ksqyneuz</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -902,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1668,27 +1684,33 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14">
+  <cols>
+    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:2" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1706,11 +1728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14">
       <c r="A1" s="1" t="s">
@@ -1719,12 +1744,12 @@
     </row>
     <row r="2" spans="1:1" ht="14">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
